--- a/Results/TCGA/SpliceJunction/NormalizedExpression/TCGA.CBL.xlsx
+++ b/Results/TCGA/SpliceJunction/NormalizedExpression/TCGA.CBL.xlsx
@@ -8105,7 +8105,7 @@
         <v>613</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>18</v>
       </c>
       <c r="D101" t="n">
         <v>2.63157894736842</v>
